--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxWeek3CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxWeek3CSBRNTK50PercentRegulatory201819.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\Weekly worksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
     <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -60,9 +60,6 @@
     <t>This processes payroll</t>
   </si>
   <si>
-    <t>GeneralTaxRateMonthly</t>
-  </si>
-  <si>
     <t>This script sets Taxcode, Tax basis, Annual salary and Pay frequency</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>PayFrequency</t>
   </si>
   <si>
-    <t>ProcessPayrollForMonthlyTax</t>
-  </si>
-  <si>
     <t>wk1 / mth1</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH AUTOMATION EMP 141</t>
   </si>
   <si>
@@ -175,6 +166,15 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
+  </si>
+  <si>
+    <t>GeneralTaxRateWeekly</t>
+  </si>
+  <si>
+    <t>ProcessPayrollForWeeklyTax</t>
   </si>
 </sst>
 </file>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,13 +675,13 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -689,10 +689,10 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,16 +756,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -779,19 +779,19 @@
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="6">
         <v>44358.6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>4</v>
@@ -805,19 +805,19 @@
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6">
         <v>28613</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>4</v>
@@ -826,19 +826,19 @@
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6">
         <v>12740</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>4</v>
@@ -847,19 +847,19 @@
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6">
         <v>42120</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>4</v>
@@ -877,7 +877,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,34 +896,34 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -937,34 +937,34 @@
     </row>
     <row r="2" spans="1:13" s="12" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>4</v>
@@ -972,34 +972,34 @@
     </row>
     <row r="3" spans="1:13" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>4</v>
@@ -1007,34 +1007,34 @@
     </row>
     <row r="4" spans="1:13" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>4</v>
@@ -1042,34 +1042,34 @@
     </row>
     <row r="5" spans="1:13" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>4</v>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,37 +1110,37 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K1" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1154,37 +1154,37 @@
     </row>
     <row r="2" spans="1:14" s="12" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>4</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxWeek3CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxWeek3CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215"/>
+    <workbookView windowHeight="4215" windowWidth="14340" xWindow="390" yWindow="330"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
@@ -181,6 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,57 +263,57 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -329,10 +330,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -367,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,7 +525,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -533,13 +534,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -549,7 +550,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -558,7 +559,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -567,7 +568,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -577,12 +578,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -613,7 +614,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -632,7 +633,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -644,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -653,10 +654,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -687,7 +688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -730,13 +731,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -745,10 +746,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -777,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24.75" r="2" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
@@ -803,7 +804,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="3" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>39</v>
       </c>
@@ -824,7 +825,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="4" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>40</v>
       </c>
@@ -845,7 +846,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="5" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>41</v>
       </c>
@@ -867,13 +868,13 @@
       <c r="G5" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -882,16 +883,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -935,7 +936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
@@ -970,7 +971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
@@ -1077,16 +1078,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A5" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1095,17 +1096,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1152,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="51.75" r="2" s="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
@@ -1192,9 +1193,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxWeek3CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxWeek3CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxWeek3CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxWeek3CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\Weekly worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="4215" windowWidth="14340" xWindow="390" yWindow="330"/>
+    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
@@ -60,6 +60,9 @@
     <t>This processes payroll</t>
   </si>
   <si>
+    <t>GeneralTaxRateMonthly</t>
+  </si>
+  <si>
     <t>This script sets Taxcode, Tax basis, Annual salary and Pay frequency</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>PayFrequency</t>
   </si>
   <si>
+    <t>ProcessPayrollForMonthlyTax</t>
+  </si>
+  <si>
     <t>wk1 / mth1</t>
   </si>
   <si>
@@ -141,6 +147,9 @@
     <t>Weekly</t>
   </si>
   <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
+  </si>
+  <si>
     <t>DO NOT TOUCH AUTOMATION EMP 141</t>
   </si>
   <si>
@@ -166,22 +175,12 @@
   </si>
   <si>
     <t>15</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
-  </si>
-  <si>
-    <t>GeneralTaxRateWeekly</t>
-  </si>
-  <si>
-    <t>ProcessPayrollForWeeklyTax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,57 +262,57 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,10 +329,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -368,7 +367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,7 +419,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,7 +524,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -534,13 +533,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -550,7 +549,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -559,7 +558,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -568,7 +567,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -578,12 +577,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -614,7 +613,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -633,7 +632,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -645,19 +644,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,26 +673,26 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -704,7 +703,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -731,25 +730,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -757,16 +756,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -778,21 +777,21 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="24.75" r="2" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6">
         <v>44358.6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>4</v>
@@ -804,63 +803,63 @@
       <c r="L2" s="6"/>
       <c r="M2" s="7"/>
     </row>
-    <row customFormat="1" ht="30" r="3" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6">
         <v>28613</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row customFormat="1" ht="30" r="4" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6">
         <v>12740</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row customFormat="1" ht="30" r="5" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6">
         <v>42120</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>4</v>
@@ -868,63 +867,63 @@
       <c r="G5" s="6"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -936,141 +935,141 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="12" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="J2" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="3" s="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="4" s="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="5" s="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="J5" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>4</v>
@@ -1078,70 +1077,70 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A5"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A3:A5" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1153,39 +1152,39 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="51.75" r="2" s="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="12" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="J2" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>4</v>
@@ -1193,9 +1192,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxWeek3CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxWeek3CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\Weekly worksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215" activeTab="1"/>
+    <workbookView windowHeight="4215" windowWidth="14340" xWindow="390" yWindow="330"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
@@ -60,9 +60,6 @@
     <t>This processes payroll</t>
   </si>
   <si>
-    <t>GeneralTaxRateMonthly</t>
-  </si>
-  <si>
     <t>This script sets Taxcode, Tax basis, Annual salary and Pay frequency</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>PayFrequency</t>
   </si>
   <si>
-    <t>ProcessPayrollForMonthlyTax</t>
-  </si>
-  <si>
     <t>wk1 / mth1</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH AUTOMATION EMP 141</t>
   </si>
   <si>
@@ -175,12 +166,22 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
+  </si>
+  <si>
+    <t>GeneralTaxRateWeekly</t>
+  </si>
+  <si>
+    <t>ProcessPayrollForWeeklyTax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,57 +263,57 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -329,10 +330,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -367,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,7 +525,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -533,13 +534,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -549,7 +550,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -558,7 +559,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -567,7 +568,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -577,12 +578,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -613,7 +614,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -632,7 +633,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -644,19 +645,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,26 +674,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -703,7 +704,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -730,25 +731,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -756,16 +757,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -777,21 +778,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24.75" r="2" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="6">
         <v>44358.6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>4</v>
@@ -803,63 +804,63 @@
       <c r="L2" s="6"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="3" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6">
         <v>28613</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="4" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6">
         <v>12740</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="5" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6">
         <v>42120</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>4</v>
@@ -867,63 +868,63 @@
       <c r="G5" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -935,141 +936,141 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>4</v>
@@ -1077,70 +1078,70 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A5" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K1" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1152,39 +1153,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="51.75" r="2" s="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>4</v>
@@ -1192,9 +1193,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>